--- a/fileHandle/upload_file/JCD_wl.xlsx
+++ b/fileHandle/upload_file/JCD_wl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangsikun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zidonghua\automation\fileHandle\upload_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3528EA-5D24-45C4-8478-81E075AFE857}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D21719-DAC5-4244-9E28-F720A9BFBDA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,11 +31,11 @@
     <t>数量</t>
   </si>
   <si>
-    <t>02310LHE-F990</t>
+    <t>2</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
+    <t>06200123-F990</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1776,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
